--- a/parents.xlsx
+++ b/parents.xlsx
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>9089674534</v>
+        <v>9909765644</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1682,7 +1682,7 @@
         <v>150</v>
       </c>
       <c r="D50">
-        <v>8809987654</v>
+        <v>8809987054</v>
       </c>
       <c r="E50" t="s">
         <v>151</v>
@@ -1699,7 +1699,7 @@
         <v>153</v>
       </c>
       <c r="D51">
-        <v>7798876543</v>
+        <v>8809987050</v>
       </c>
       <c r="E51" t="s">
         <v>154</v>
